--- a/downloaded_files/GENS206_Lecture-35041.xlsx
+++ b/downloaded_files/GENS206_Lecture-35041.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -209,7 +218,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -509,7 +518,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -517,8 +526,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.180625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.090625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -810,6 +819,38 @@
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
     </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45919.6032532755</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/GENS206_Lecture-35041.xlsx
+++ b/downloaded_files/GENS206_Lecture-35041.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Andrew Nader Labib Sobhy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد على محمود محمود الخضرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeyad Ali Mahmoud Mahmoud Elkhodary</x:t>
   </x:si>
   <x:si>
     <x:t>1190010</x:t>
@@ -218,7 +209,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -518,7 +509,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T9"/>
+  <x:dimension ref="A1:T8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -641,7 +632,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4155109954</x:v>
+        <x:v>45914.9473454051</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -673,7 +664,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.9473454051</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -705,7 +696,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -737,7 +728,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45906.4165547801</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -769,7 +760,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4165547801</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -801,7 +792,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -818,38 +809,6 @@
       <x:c r="R8" s="2" t="s"/>
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:20">
-      <x:c r="A9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="3">
-        <x:v>45919.6032532755</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s"/>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
-      <x:c r="I9" s="2" t="s"/>
-      <x:c r="J9" s="2" t="s"/>
-      <x:c r="K9" s="2" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS206_Lecture-35041.xlsx
+++ b/downloaded_files/GENS206_Lecture-35041.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Abdulla Mohamed Bekhit Abdel Azeem Nussir</x:t>
   </x:si>
   <x:si>
-    <x:t>2240008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على الدين خالد على شاهين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali eldin</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200429</x:t>
   </x:si>
   <x:si>
@@ -78,15 +69,6 @@
     <x:t>Karim Amr Mohamed Fahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد حامد احمد حامد سليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240361</x:t>
   </x:si>
   <x:si>
@@ -94,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منة الله مدحت عبد الرازق على عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -209,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -509,7 +500,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -696,7 +687,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45906.4165547801</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -728,7 +719,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4165547801</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -760,7 +751,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45927.4146699421</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -777,38 +768,6 @@
       <x:c r="R7" s="2" t="s"/>
       <x:c r="S7" s="2" t="s"/>
       <x:c r="T7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:20">
-      <x:c r="A8" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="3">
-        <x:v>45919.6032532755</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s"/>
-      <x:c r="G8" s="2" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
-      <x:c r="P8" s="2" t="s"/>
-      <x:c r="Q8" s="2" t="s"/>
-      <x:c r="R8" s="2" t="s"/>
-      <x:c r="S8" s="2" t="s"/>
-      <x:c r="T8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS206_Lecture-35041.xlsx
+++ b/downloaded_files/GENS206_Lecture-35041.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,60 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اندرو نادر لبيب صبحي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Nader Labib Sobhy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1190010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمود على على حسين الفقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeyad Mahmoud Ali Ali Hussein Elfeky</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله محمد بخيت عبد العظيم نصير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdulla Mohamed Bekhit Abdel Azeem Nussir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم عمرو محمد فهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Amr Mohamed Fahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240361</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منة الله مدحت عبد الرازق على عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -161,35 +107,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -200,7 +132,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -500,17 +432,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T7"/>
+  <x:dimension ref="A1:T2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.090625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -578,196 +510,11 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="3">
-        <x:v>45906.6648158218</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
-      <x:c r="I2" s="2" t="s"/>
-      <x:c r="J2" s="2" t="s"/>
-      <x:c r="K2" s="2" t="s"/>
-      <x:c r="L2" s="2" t="s"/>
-      <x:c r="M2" s="2" t="s"/>
-      <x:c r="N2" s="2" t="s"/>
-      <x:c r="O2" s="2" t="s"/>
-      <x:c r="P2" s="2" t="s"/>
-      <x:c r="Q2" s="2" t="s"/>
-      <x:c r="R2" s="2" t="s"/>
-      <x:c r="S2" s="2" t="s"/>
-      <x:c r="T2" s="2" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:20">
-      <x:c r="A3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="3">
-        <x:v>45914.9473454051</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s"/>
-      <x:c r="L3" s="2" t="s"/>
-      <x:c r="M3" s="2" t="s"/>
-      <x:c r="N3" s="2" t="s"/>
-      <x:c r="O3" s="2" t="s"/>
-      <x:c r="P3" s="2" t="s"/>
-      <x:c r="Q3" s="2" t="s"/>
-      <x:c r="R3" s="2" t="s"/>
-      <x:c r="S3" s="2" t="s"/>
-      <x:c r="T3" s="2" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:20">
-      <x:c r="A4" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="3">
-        <x:v>45907.4246724537</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s"/>
-      <x:c r="G4" s="2" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
-      <x:c r="I4" s="2" t="s"/>
-      <x:c r="J4" s="2" t="s"/>
-      <x:c r="K4" s="2" t="s"/>
-      <x:c r="L4" s="2" t="s"/>
-      <x:c r="M4" s="2" t="s"/>
-      <x:c r="N4" s="2" t="s"/>
-      <x:c r="O4" s="2" t="s"/>
-      <x:c r="P4" s="2" t="s"/>
-      <x:c r="Q4" s="2" t="s"/>
-      <x:c r="R4" s="2" t="s"/>
-      <x:c r="S4" s="2" t="s"/>
-      <x:c r="T4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:20">
-      <x:c r="A5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>45906.4165547801</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:20">
-      <x:c r="A6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>45919.6032532755</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-      <x:c r="G6" s="2" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="2" t="s"/>
-      <x:c r="Q6" s="2" t="s"/>
-      <x:c r="R6" s="2" t="s"/>
-      <x:c r="S6" s="2" t="s"/>
-      <x:c r="T6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:20">
-      <x:c r="A7" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="3">
-        <x:v>45927.4146699421</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="2" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
-      <x:c r="J7" s="2" t="s"/>
-      <x:c r="K7" s="2" t="s"/>
-      <x:c r="L7" s="2" t="s"/>
-      <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="2" t="s"/>
-      <x:c r="P7" s="2" t="s"/>
-      <x:c r="Q7" s="2" t="s"/>
-      <x:c r="R7" s="2" t="s"/>
-      <x:c r="S7" s="2" t="s"/>
-      <x:c r="T7" s="2" t="s"/>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
